--- a/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 27,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; 17,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,37; 18,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,21; 13,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 79,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,81; 45,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,62; 42,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,08; 27,56</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,74; 20,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 14,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,03; 15,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 8,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,01; 50,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 34,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,31; 38,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 19,36</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,32%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,96; 24,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 15,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 14,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 14,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,14; 67,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,44; 37,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,26; 40,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 39,27</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,91; 15,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,25; 17,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 14,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 25,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,53; 35,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,53; 46,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,95; 37,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,61; 61,11</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,0; 15,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,46; 12,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 8,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,78; 39,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,02; 34,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,46; 37,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 16,56</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 16,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,93; 12,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,31; 11,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 12,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,23; 41,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,39; 29,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,74; 29,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 26,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,7</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 27,99</t>
+          <t>9,13; 20,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 17,43</t>
+          <t>2,89; 13,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 18,39</t>
+          <t>2,54; 13,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 13,19</t>
+          <t>-1,98; 8,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 79,9</t>
+          <t>20,4; 50,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 45,65</t>
+          <t>6,14; 32,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 42,87</t>
+          <t>5,58; 33,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 27,56</t>
+          <t>-3,58; 18,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>20,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 20,04</t>
+          <t>15,96; 24,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 14,54</t>
+          <t>6,7; 15,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 15,06</t>
+          <t>5,18; 14,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 8,89</t>
+          <t>-21,85; 14,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,01; 50,22</t>
+          <t>38,14; 67,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 34,31</t>
+          <t>14,44; 37,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 38,84</t>
+          <t>13,26; 40,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 19,36</t>
+          <t>-31,32; 39,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,63</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,97</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>16,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>36,17%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 24,76</t>
+          <t>3,91; 15,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,68</t>
+          <t>6,25; 17,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,13</t>
+          <t>3,82; 14,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 14,3</t>
+          <t>3,34; 34,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,14; 67,49</t>
+          <t>7,53; 35,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 37,64</t>
+          <t>14,53; 46,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,26; 40,85</t>
+          <t>8,95; 37,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 39,27</t>
+          <t>7,25; 81,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 15,32</t>
+          <t>7,0; 15,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 17,33</t>
+          <t>5,26; 14,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,25</t>
+          <t>4,46; 12,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 25,74</t>
+          <t>-9,21; 6,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 35,23</t>
+          <t>15,78; 39,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 46,02</t>
+          <t>11,02; 34,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,95; 37,62</t>
+          <t>11,46; 37,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 61,11</t>
+          <t>-16,98; 12,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,75</t>
+          <t>12,04; 16,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,51</t>
+          <t>7,93; 12,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,99</t>
+          <t>6,31; 11,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 8,21</t>
+          <t>-6,71; 12,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,78; 39,3</t>
+          <t>27,23; 41,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,02; 34,08</t>
+          <t>17,39; 29,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,46; 37,1</t>
+          <t>15,74; 29,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 16,56</t>
+          <t>-12,97; 25,26</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,48</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>34,01%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>23,41%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,8%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,04; 16,95</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 12,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 11,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 12,03</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>27,23; 41,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>17,39; 29,42</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,74; 29,72</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 26,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 20,01</t>
+          <t>9,47; 20,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,78</t>
+          <t>2,89; 13,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,51</t>
+          <t>2,83; 13,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,96</t>
+          <t>-1,91; 8,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,4; 50,73</t>
+          <t>20,92; 50,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 32,95</t>
+          <t>6,47; 32,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 33,34</t>
+          <t>6,29; 33,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 18,87</t>
+          <t>-3,93; 18,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,96; 24,76</t>
+          <t>16,13; 25,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,68</t>
+          <t>6,82; 15,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,13</t>
+          <t>5,61; 14,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 14,5</t>
+          <t>-23,12; 14,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,14; 67,49</t>
+          <t>38,19; 68,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 37,64</t>
+          <t>14,55; 37,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 40,85</t>
+          <t>13,99; 42,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 39,76</t>
+          <t>-31,64; 40,55</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 15,32</t>
+          <t>4,67; 15,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 17,33</t>
+          <t>6,33; 17,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,25</t>
+          <t>3,45; 13,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 34,27</t>
+          <t>3,83; 38,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 35,23</t>
+          <t>9,86; 36,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 46,02</t>
+          <t>14,25; 45,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 37,62</t>
+          <t>8,05; 34,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 81,49</t>
+          <t>8,81; 94,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,75</t>
+          <t>6,98; 15,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,51</t>
+          <t>5,18; 14,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,99</t>
+          <t>4,06; 12,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 6,37</t>
+          <t>-10,82; 5,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 39,3</t>
+          <t>16,18; 39,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 34,08</t>
+          <t>10,89; 32,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 37,1</t>
+          <t>10,38; 37,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 12,24</t>
+          <t>-19,23; 11,53</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,95</t>
+          <t>11,98; 16,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,58</t>
+          <t>7,77; 12,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,21</t>
+          <t>6,09; 11,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 12,12</t>
+          <t>-6,07; 12,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,23; 41,08</t>
+          <t>27,35; 40,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,39; 29,42</t>
+          <t>17,15; 30,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,72</t>
+          <t>14,88; 29,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 25,26</t>
+          <t>-11,29; 25,91</t>
         </is>
       </c>
     </row>
